--- a/market_report_2025-07-20.xlsx
+++ b/market_report_2025-07-20.xlsx
@@ -184,219 +184,219 @@
     <t>Source</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
     <t>ACN</t>
   </si>
   <si>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
     <t>ABBV</t>
   </si>
   <si>
     <t>MMM</t>
   </si>
   <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>AOS</t>
-  </si>
-  <si>
-    <t>AFL</t>
-  </si>
-  <si>
-    <t>AES</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ADBE</t>
+    <t>IONQ</t>
+  </si>
+  <si>
+    <t>NXT</t>
+  </si>
+  <si>
+    <t>JOBY</t>
+  </si>
+  <si>
+    <t>HQY</t>
   </si>
   <si>
     <t>CRDO</t>
   </si>
   <si>
-    <t>JOBY</t>
-  </si>
-  <si>
-    <t>IONQ</t>
-  </si>
-  <si>
-    <t>NXT</t>
-  </si>
-  <si>
-    <t>HQY</t>
+    <t>FLR</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>KTOS</t>
+  </si>
+  <si>
+    <t>HIMS</t>
   </si>
   <si>
     <t>AVAV</t>
   </si>
   <si>
-    <t>KTOS</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>FLR</t>
-  </si>
-  <si>
-    <t>HIMS</t>
+    <t>AACIU</t>
   </si>
   <si>
     <t>AACI</t>
   </si>
   <si>
+    <t>AACB</t>
+  </si>
+  <si>
+    <t>AACIW</t>
+  </si>
+  <si>
+    <t>AACBU</t>
+  </si>
+  <si>
+    <t>AAME</t>
+  </si>
+  <si>
     <t>AACBR</t>
   </si>
   <si>
-    <t>AACIW</t>
-  </si>
-  <si>
-    <t>AACBU</t>
-  </si>
-  <si>
-    <t>AAME</t>
+    <t>AAOI</t>
   </si>
   <si>
     <t>AACG</t>
   </si>
   <si>
-    <t>AAOI</t>
-  </si>
-  <si>
     <t>AAL</t>
   </si>
   <si>
-    <t>AACB</t>
-  </si>
-  <si>
-    <t>AACIU</t>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>Industrials</t>
   </si>
   <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
+    <t>Diagnostics &amp; Research</t>
+  </si>
+  <si>
+    <t>Utilities - Diversified</t>
+  </si>
+  <si>
+    <t>Insurance - Life</t>
+  </si>
+  <si>
     <t>Information Technology Services</t>
   </si>
   <si>
+    <t>Specialty Industrial Machinery</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Software - Application</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
     <t>Drug Manufacturers - General</t>
   </si>
   <si>
     <t>Conglomerates</t>
   </si>
   <si>
-    <t>Medical Devices</t>
-  </si>
-  <si>
-    <t>Semiconductors</t>
-  </si>
-  <si>
-    <t>Specialty Industrial Machinery</t>
-  </si>
-  <si>
-    <t>Insurance - Life</t>
-  </si>
-  <si>
-    <t>Utilities - Diversified</t>
-  </si>
-  <si>
-    <t>Diagnostics &amp; Research</t>
-  </si>
-  <si>
-    <t>Software - Application</t>
+    <t>Computer Hardware</t>
+  </si>
+  <si>
+    <t>Solar</t>
   </si>
   <si>
     <t>Airports &amp; Air Services</t>
   </si>
   <si>
-    <t>Computer Hardware</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
     <t>Health Information Services</t>
   </si>
   <si>
+    <t>Engineering &amp; Construction</t>
+  </si>
+  <si>
+    <t>Electronic Components</t>
+  </si>
+  <si>
     <t>Aerospace &amp; Defense</t>
   </si>
   <si>
-    <t>Electronic Components</t>
-  </si>
-  <si>
-    <t>Engineering &amp; Construction</t>
-  </si>
-  <si>
     <t>Household &amp; Personal Products</t>
   </si>
   <si>
     <t>Shell Companies</t>
   </si>
   <si>
+    <t>Communication Equipment</t>
+  </si>
+  <si>
     <t>Education &amp; Training Services</t>
   </si>
   <si>
-    <t>Communication Equipment</t>
-  </si>
-  <si>
     <t>Airlines</t>
   </si>
   <si>
+    <t>Health Care &amp; Social Assistance</t>
+  </si>
+  <si>
+    <t>Finance &amp; Insurance</t>
+  </si>
+  <si>
     <t>Professional, Scientific &amp; Technical Services</t>
   </si>
   <si>
-    <t>Health Care &amp; Social Assistance</t>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Computer &amp; Electronic Products</t>
   </si>
   <si>
     <t>Management of Companies &amp; Support Services</t>
   </si>
   <si>
-    <t>Computer &amp; Electronic Products</t>
-  </si>
-  <si>
-    <t>Machinery</t>
-  </si>
-  <si>
-    <t>Finance &amp; Insurance</t>
-  </si>
-  <si>
-    <t>Information</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Transportation Equipment</t>
   </si>
   <si>
-    <t>Construction</t>
-  </si>
-  <si>
     <t>Miscellaneous Manufacturing</t>
   </si>
   <si>
     <t>Transportation &amp; Warehousing</t>
   </si>
   <si>
+    <t>Defensive</t>
+  </si>
+  <si>
     <t>Both</t>
   </si>
   <si>
-    <t>Defensive</t>
-  </si>
-  <si>
     <t>Consumer</t>
   </si>
   <si>
@@ -406,120 +406,120 @@
     <t>Manufacturing</t>
   </si>
   <si>
+    <t>3.0%</t>
+  </si>
+  <si>
+    <t>4.3%</t>
+  </si>
+  <si>
+    <t>1.6%</t>
+  </si>
+  <si>
     <t>2.2%</t>
   </si>
   <si>
+    <t>2.1%</t>
+  </si>
+  <si>
+    <t>2.6%</t>
+  </si>
+  <si>
     <t>2.3%</t>
   </si>
   <si>
+    <t>3.5%</t>
+  </si>
+  <si>
     <t>2.5%</t>
   </si>
   <si>
-    <t>2.6%</t>
-  </si>
-  <si>
-    <t>3.5%</t>
-  </si>
-  <si>
-    <t>2.1%</t>
-  </si>
-  <si>
-    <t>1.6%</t>
-  </si>
-  <si>
-    <t>4.3%</t>
-  </si>
-  <si>
-    <t>3.0%</t>
+    <t>6.5%</t>
+  </si>
+  <si>
+    <t>4.7%</t>
   </si>
   <si>
     <t>5.7%</t>
   </si>
   <si>
-    <t>6.5%</t>
-  </si>
-  <si>
-    <t>4.7%</t>
-  </si>
-  <si>
     <t>3.2%</t>
   </si>
   <si>
+    <t>2.8%</t>
+  </si>
+  <si>
+    <t>3.1%</t>
+  </si>
+  <si>
     <t>4.8%</t>
   </si>
   <si>
-    <t>3.1%</t>
-  </si>
-  <si>
-    <t>2.8%</t>
-  </si>
-  <si>
     <t>7.7%</t>
   </si>
   <si>
     <t>6.9%</t>
   </si>
   <si>
+    <t>8.3%</t>
+  </si>
+  <si>
     <t>6.1%</t>
   </si>
   <si>
-    <t>8.3%</t>
-  </si>
-  <si>
     <t>4.0%</t>
   </si>
   <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
     <t>2025-09-24 , 2025-09-29</t>
   </si>
   <si>
-    <t>2025-07-31</t>
+    <t>2025-07-21 , 2025-07-25</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-09-10 , 2025-09-15</t>
   </si>
   <si>
     <t>2025-07-18</t>
   </si>
   <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>2025-08-05</t>
-  </si>
-  <si>
-    <t>2025-07-21 , 2025-07-25</t>
-  </si>
-  <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
-    <t>2025-09-10 , 2025-09-15</t>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-08-05 , 2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-09-01 , 2025-09-05</t>
   </si>
   <si>
     <t>2025-09-02 , 2025-09-08</t>
   </si>
   <si>
-    <t>2025-08-05 , 2025-08-11</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>2025-07-29</t>
-  </si>
-  <si>
-    <t>2025-09-01 , 2025-09-05</t>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>2025-08-18 , 2025-08-22</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
   </si>
   <si>
     <t>2025-09-03</t>
   </si>
   <si>
-    <t>2025-08-18 , 2025-08-22</t>
-  </si>
-  <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
-    <t>2025-08-04</t>
-  </si>
-  <si>
     <t>2025-05-07</t>
   </si>
   <si>
@@ -532,31 +532,31 @@
     <t>2025-07-24</t>
   </si>
   <si>
+    <t>Buy</t>
+  </si>
+  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>Buy</t>
+    <t>Sell</t>
   </si>
   <si>
     <t>Strong Buy</t>
   </si>
   <si>
-    <t>Sell</t>
-  </si>
-  <si>
     <t>Strong Sell</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
     <t>2025-07-17</t>
   </si>
   <si>
     <t>2025-07-15</t>
-  </si>
-  <si>
-    <t>2025-07-16</t>
   </si>
   <si>
     <t>SP500</t>
@@ -1161,151 +1161,151 @@
         <v>128</v>
       </c>
       <c r="G2" s="1">
-        <v>282.44</v>
+        <v>113.99</v>
       </c>
       <c r="H2">
-        <v>175.92</v>
+        <v>32.38</v>
       </c>
       <c r="I2">
-        <v>622.85</v>
+        <v>284.06</v>
       </c>
       <c r="J2">
-        <v>621.76</v>
+        <v>282.98</v>
       </c>
       <c r="K2" s="1">
-        <v>306.432</v>
+        <v>115.5626</v>
       </c>
       <c r="L2" s="2">
-        <v>-0.07829469507101092</v>
+        <v>-0.01360820888418925</v>
       </c>
       <c r="M2" s="1">
-        <v>336.227</v>
+        <v>127.1075</v>
       </c>
       <c r="N2" s="2">
-        <v>-0.159972280631835</v>
+        <v>-0.1032000472041383</v>
       </c>
       <c r="O2">
-        <v>318.43</v>
+        <v>133.27</v>
       </c>
       <c r="P2" s="2">
-        <v>-0.1130232704205006</v>
+        <v>-0.1446687176408795</v>
       </c>
       <c r="Q2">
-        <v>-7.3</v>
+        <v>0.05</v>
       </c>
       <c r="R2">
-        <v>-5.97</v>
+        <v>1.08</v>
       </c>
       <c r="S2">
-        <v>37.27</v>
+        <v>43.11</v>
       </c>
       <c r="T2">
-        <v>27.88</v>
+        <v>47.59</v>
       </c>
       <c r="U2">
-        <v>37.01</v>
+        <v>59.08</v>
       </c>
       <c r="V2">
-        <v>-6.67</v>
+        <v>-5.36</v>
       </c>
       <c r="W2">
-        <v>45.09</v>
+        <v>39.29</v>
       </c>
       <c r="X2">
-        <v>6.21</v>
+        <v>3.41</v>
       </c>
       <c r="Y2" t="s">
         <v>130</v>
       </c>
       <c r="Z2" s="1">
-        <v>286.6793314615886</v>
+        <v>112.7070004781087</v>
       </c>
       <c r="AA2" s="1">
-        <v>307.3320577028446</v>
+        <v>120.1275079273923</v>
       </c>
       <c r="AB2" s="1">
-        <v>266.0266052203325</v>
+        <v>105.2864930288251</v>
       </c>
       <c r="AC2">
-        <v>8.65</v>
+        <v>4.11</v>
       </c>
       <c r="AD2">
-        <v>3.03</v>
+        <v>1.73</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.0139</v>
+        <v>0.0164</v>
       </c>
       <c r="AF2" t="s">
         <v>151</v>
       </c>
       <c r="AG2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="s">
         <v>172</v>
       </c>
       <c r="AI2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AJ2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AL2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="2">
-        <v>0.16</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="AP2" s="2">
-        <v>0.52</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="AQ2" s="2">
-        <v>0.28</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AR2" s="2">
         <v>0</v>
       </c>
       <c r="AS2" s="2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="2">
-        <v>0.68</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="1">
-        <v>263</v>
+        <v>113.2</v>
       </c>
       <c r="AW2" s="2">
-        <v>-0.06882877779351367</v>
+        <v>-0.006930432494078358</v>
       </c>
       <c r="AX2" s="1">
-        <v>340.79782</v>
+        <v>136.5125</v>
       </c>
       <c r="AY2" s="2">
-        <v>0.2066202379266393</v>
+        <v>0.1975831213264321</v>
       </c>
       <c r="AZ2" s="1">
-        <v>395</v>
+        <v>165</v>
       </c>
       <c r="BA2" s="2">
-        <v>0.3985271208044187</v>
+        <v>0.4474953943328363</v>
       </c>
       <c r="BB2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC2">
-        <v>-6.67</v>
+        <v>-5.36</v>
       </c>
       <c r="BD2" t="s">
         <v>181</v>
@@ -1322,88 +1322,88 @@
         <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
       </c>
       <c r="G3" s="1">
-        <v>189.26</v>
+        <v>13.37</v>
       </c>
       <c r="H3">
-        <v>334.31</v>
+        <v>9.52</v>
       </c>
       <c r="I3">
-        <v>1766.4</v>
+        <v>711.92</v>
       </c>
       <c r="J3">
-        <v>1762.78</v>
+        <v>707.75</v>
       </c>
       <c r="K3" s="1">
-        <v>187.2382</v>
+        <v>11.2142</v>
       </c>
       <c r="L3" s="2">
-        <v>0.01079801023509083</v>
+        <v>0.1922384120133402</v>
       </c>
       <c r="M3" s="1">
-        <v>188.1288</v>
+        <v>12.4666</v>
       </c>
       <c r="N3" s="2">
-        <v>0.006012901799192778</v>
+        <v>0.07246562815843932</v>
       </c>
       <c r="O3">
-        <v>159.66</v>
+        <v>19.46</v>
       </c>
       <c r="P3" s="2">
-        <v>0.1853939621696104</v>
+        <v>-0.3129496402877698</v>
       </c>
       <c r="Q3">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="R3">
-        <v>0.83</v>
+        <v>0.45</v>
       </c>
       <c r="S3">
-        <v>50.57</v>
+        <v>67.47</v>
       </c>
       <c r="T3">
-        <v>61.3</v>
+        <v>83.95999999999999</v>
       </c>
       <c r="U3">
-        <v>63.41</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="V3">
-        <v>-0.38</v>
+        <v>24.14</v>
       </c>
       <c r="W3">
-        <v>56.66</v>
+        <v>69.25</v>
       </c>
       <c r="X3">
-        <v>4.39</v>
+        <v>0.57</v>
       </c>
       <c r="Y3" t="s">
         <v>131</v>
       </c>
       <c r="Z3" s="1">
-        <v>182.9240005493164</v>
+        <v>12.64166673024496</v>
       </c>
       <c r="AA3" s="1">
-        <v>200.115050420741</v>
+        <v>13.99671420557817</v>
       </c>
       <c r="AB3" s="1">
-        <v>165.7329506778918</v>
+        <v>11.28661925491174</v>
       </c>
       <c r="AC3">
-        <v>14.7</v>
+        <v>38.84</v>
       </c>
       <c r="AD3">
-        <v>2.5</v>
+        <v>2.09</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.0083</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="AF3" t="s">
         <v>152</v>
@@ -1412,37 +1412,37 @@
         <v>3</v>
       </c>
       <c r="AH3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AI3">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AJ3">
         <v>3</v>
       </c>
       <c r="AK3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AL3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3" s="2">
-        <v>0.1071428571428571</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP3" s="2">
-        <v>0.4642857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="AQ3" s="2">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR3" s="2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AS3" s="2">
         <v>0</v>
@@ -1451,31 +1451,31 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="AU3" s="2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AV3" s="1">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="AW3" s="2">
-        <v>-0.1017647680439606</v>
+        <v>-0.6260284218399401</v>
       </c>
       <c r="AX3" s="1">
-        <v>209.1237</v>
+        <v>13.66667</v>
       </c>
       <c r="AY3" s="2">
-        <v>0.1049545598647365</v>
+        <v>0.02218922961854904</v>
       </c>
       <c r="AZ3" s="1">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="BA3" s="2">
-        <v>0.3209341646412344</v>
+        <v>0.7202692595362753</v>
       </c>
       <c r="BB3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC3">
-        <v>-0.38</v>
+        <v>24.14</v>
       </c>
       <c r="BD3" t="s">
         <v>181</v>
@@ -1492,88 +1492,88 @@
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>128</v>
       </c>
       <c r="G4" s="1">
-        <v>153.23</v>
+        <v>101.83</v>
       </c>
       <c r="H4">
-        <v>82.47</v>
+        <v>55.05</v>
       </c>
       <c r="I4">
-        <v>538.1799999999999</v>
+        <v>540.64</v>
       </c>
       <c r="J4">
-        <v>537.35</v>
+        <v>535.87</v>
       </c>
       <c r="K4" s="1">
-        <v>149.4974</v>
+        <v>103.5314</v>
       </c>
       <c r="L4" s="2">
-        <v>0.02496765830041185</v>
+        <v>-0.01643366167172478</v>
       </c>
       <c r="M4" s="1">
-        <v>141.135</v>
+        <v>106.5137</v>
       </c>
       <c r="N4" s="2">
-        <v>0.08569809048074538</v>
+        <v>-0.04397274716773525</v>
       </c>
       <c r="O4">
-        <v>113.14</v>
+        <v>79.11</v>
       </c>
       <c r="P4" s="2">
-        <v>0.3543397560544457</v>
+        <v>0.2871950448742258</v>
       </c>
       <c r="Q4">
-        <v>2.59</v>
+        <v>-0.62</v>
       </c>
       <c r="R4">
-        <v>2.54</v>
+        <v>-0.44</v>
       </c>
       <c r="S4">
-        <v>51.73</v>
+        <v>45.62</v>
       </c>
       <c r="T4">
-        <v>82.73999999999999</v>
+        <v>23.41</v>
       </c>
       <c r="U4">
-        <v>84.41</v>
+        <v>31.28</v>
       </c>
       <c r="V4">
-        <v>-0.38</v>
+        <v>-3.73</v>
       </c>
       <c r="W4">
-        <v>49.76</v>
+        <v>50.53</v>
       </c>
       <c r="X4">
-        <v>3.83</v>
+        <v>1.64</v>
       </c>
       <c r="Y4" t="s">
         <v>132</v>
       </c>
       <c r="Z4" s="1">
-        <v>129.6920303344727</v>
+        <v>100.9976687113444</v>
       </c>
       <c r="AA4" s="1">
-        <v>222.4923981474338</v>
+        <v>102.1096626375023</v>
       </c>
       <c r="AB4" s="1">
-        <v>36.89166252151155</v>
+        <v>99.88567478518652</v>
       </c>
       <c r="AC4">
-        <v>10.31</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AD4">
-        <v>3.4</v>
+        <v>4.67</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.019199999</v>
+        <v>0.0177</v>
       </c>
       <c r="AF4" t="s">
         <v>153</v>
@@ -1582,70 +1582,70 @@
         <v>2</v>
       </c>
       <c r="AH4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AJ4">
         <v>2</v>
       </c>
       <c r="AK4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM4">
         <v>1</v>
       </c>
       <c r="AN4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="2">
-        <v>0.1052631578947368</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AP4" s="2">
-        <v>0.4736842105263158</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AQ4" s="2">
-        <v>0.2631578947368421</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AR4" s="2">
-        <v>0.05263157894736842</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AS4" s="2">
-        <v>0.1052631578947368</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AT4" s="2">
-        <v>0.5789473684210527</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AU4" s="2">
-        <v>0.1578947368421053</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AV4" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AW4" s="2">
-        <v>-0.3473862820596488</v>
+        <v>-0.0768928606501031</v>
       </c>
       <c r="AX4" s="1">
-        <v>152.93777</v>
+        <v>105.61538</v>
       </c>
       <c r="AY4" s="2">
-        <v>-0.001907133067937019</v>
+        <v>0.03717352450162038</v>
       </c>
       <c r="AZ4" s="1">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="BA4" s="2">
-        <v>0.2008092410102461</v>
+        <v>0.1784346459785918</v>
       </c>
       <c r="BB4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC4">
-        <v>-0.38</v>
+        <v>-3.73</v>
       </c>
       <c r="BD4" t="s">
         <v>181</v>
@@ -1656,13 +1656,13 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
         <v>126</v>
@@ -1671,100 +1671,100 @@
         <v>128</v>
       </c>
       <c r="G5" s="1">
-        <v>123.67</v>
+        <v>282.44</v>
       </c>
       <c r="H5">
-        <v>215.17</v>
+        <v>175.92</v>
       </c>
       <c r="I5">
-        <v>1739.84</v>
+        <v>622.85</v>
       </c>
       <c r="J5">
-        <v>1729.78</v>
+        <v>621.76</v>
       </c>
       <c r="K5" s="1">
-        <v>133.0842</v>
+        <v>306.432</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.07073867521463861</v>
+        <v>-0.07829469507101092</v>
       </c>
       <c r="M5" s="1">
-        <v>125.1593</v>
+        <v>336.227</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.01189923561413335</v>
+        <v>-0.159972280631835</v>
       </c>
       <c r="O5">
-        <v>113.59</v>
+        <v>318.43</v>
       </c>
       <c r="P5" s="2">
-        <v>0.08874020600404964</v>
+        <v>-0.1130232704205006</v>
       </c>
       <c r="Q5">
-        <v>-1.89</v>
+        <v>-7.3</v>
       </c>
       <c r="R5">
-        <v>-0.6</v>
+        <v>-5.97</v>
       </c>
       <c r="S5">
-        <v>31.91</v>
+        <v>37.27</v>
       </c>
       <c r="T5">
-        <v>16.49</v>
+        <v>27.88</v>
       </c>
       <c r="U5">
-        <v>22.08</v>
+        <v>37.01</v>
       </c>
       <c r="V5">
-        <v>-9.24</v>
+        <v>-6.67</v>
       </c>
       <c r="W5">
-        <v>40.2</v>
+        <v>45.09</v>
       </c>
       <c r="X5">
-        <v>3.18</v>
+        <v>6.21</v>
       </c>
       <c r="Y5" t="s">
         <v>133</v>
       </c>
       <c r="Z5" s="1">
-        <v>101.4539980570475</v>
+        <v>286.6793314615886</v>
       </c>
       <c r="AA5" s="1">
-        <v>171.4755672335852</v>
+        <v>307.3320577028446</v>
       </c>
       <c r="AB5" s="1">
-        <v>31.43242888050983</v>
+        <v>266.0266052203325</v>
       </c>
       <c r="AC5">
-        <v>20.8</v>
+        <v>8.65</v>
       </c>
       <c r="AD5">
-        <v>3.54</v>
+        <v>3.03</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.012</v>
+        <v>0.0139</v>
       </c>
       <c r="AF5" t="s">
         <v>154</v>
       </c>
       <c r="AG5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH5" t="s">
         <v>173</v>
       </c>
       <c r="AI5">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AJ5">
+        <v>4</v>
+      </c>
+      <c r="AK5">
+        <v>13</v>
+      </c>
+      <c r="AL5">
         <v>7</v>
-      </c>
-      <c r="AK5">
-        <v>12</v>
-      </c>
-      <c r="AL5">
-        <v>9</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -1773,49 +1773,49 @@
         <v>1</v>
       </c>
       <c r="AO5" s="2">
-        <v>0.2413793103448276</v>
+        <v>0.16</v>
       </c>
       <c r="AP5" s="2">
-        <v>0.4137931034482759</v>
+        <v>0.52</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0.3103448275862069</v>
+        <v>0.28</v>
       </c>
       <c r="AR5" s="2">
         <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <v>0.03448275862068965</v>
+        <v>0.04</v>
       </c>
       <c r="AT5" s="2">
-        <v>0.6551724137931034</v>
+        <v>0.68</v>
       </c>
       <c r="AU5" s="2">
-        <v>0.03448275862068965</v>
+        <v>0.04</v>
       </c>
       <c r="AV5" s="1">
-        <v>120.12</v>
+        <v>263</v>
       </c>
       <c r="AW5" s="2">
-        <v>-0.02870542572976467</v>
+        <v>-0.06882877779351367</v>
       </c>
       <c r="AX5" s="1">
-        <v>141.31693</v>
+        <v>340.79782</v>
       </c>
       <c r="AY5" s="2">
-        <v>0.1426937009784104</v>
+        <v>0.2066202379266393</v>
       </c>
       <c r="AZ5" s="1">
-        <v>159</v>
+        <v>395</v>
       </c>
       <c r="BA5" s="2">
-        <v>0.285679631276785</v>
+        <v>0.3985271208044187</v>
       </c>
       <c r="BB5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC5">
-        <v>-9.24</v>
+        <v>-6.67</v>
       </c>
       <c r="BD5" t="s">
         <v>181</v>
@@ -1826,7 +1826,7 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>96</v>
@@ -1835,85 +1835,85 @@
         <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
         <v>129</v>
       </c>
       <c r="G6" s="1">
-        <v>156.99</v>
+        <v>70.3</v>
       </c>
       <c r="H6">
-        <v>254.54</v>
+        <v>9.99</v>
       </c>
       <c r="I6">
-        <v>1621.4</v>
+        <v>116.24</v>
       </c>
       <c r="J6">
-        <v>1610.1</v>
+        <v>114.1</v>
       </c>
       <c r="K6" s="1">
-        <v>126.2768</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="L6" s="2">
-        <v>0.2432212409563753</v>
+        <v>0.05334132454300274</v>
       </c>
       <c r="M6" s="1">
-        <v>123.4388</v>
+        <v>69.712</v>
       </c>
       <c r="N6" s="2">
-        <v>0.2718043273265781</v>
+        <v>0.008434702777140146</v>
       </c>
       <c r="O6">
-        <v>117.76</v>
+        <v>70.53</v>
       </c>
       <c r="P6" s="2">
-        <v>0.3331351902173913</v>
+        <v>-0.003261023677867631</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>1.13</v>
       </c>
       <c r="R6">
-        <v>7.77</v>
+        <v>0.87</v>
       </c>
       <c r="S6">
-        <v>72.72</v>
+        <v>62.15</v>
       </c>
       <c r="T6">
-        <v>87.45</v>
+        <v>78.34</v>
       </c>
       <c r="U6">
-        <v>81.95</v>
+        <v>80.25</v>
       </c>
       <c r="V6">
-        <v>15.34</v>
+        <v>3.75</v>
       </c>
       <c r="W6">
-        <v>73.67</v>
+        <v>76.17</v>
       </c>
       <c r="X6">
-        <v>5.54</v>
+        <v>1.47</v>
       </c>
       <c r="Y6" t="s">
         <v>134</v>
       </c>
       <c r="Z6" s="1">
-        <v>153.8569986979167</v>
+        <v>70.72766901652018</v>
       </c>
       <c r="AA6" s="1">
-        <v>165.4314978298575</v>
+        <v>72.84108412992849</v>
       </c>
       <c r="AB6" s="1">
-        <v>142.2824995659759</v>
+        <v>68.61425390311187</v>
       </c>
       <c r="AC6">
-        <v>41.01</v>
+        <v>3.97</v>
       </c>
       <c r="AD6">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.0254</v>
+        <v>0.0344</v>
       </c>
       <c r="AF6" t="s">
         <v>155</v>
@@ -1922,70 +1922,70 @@
         <v>3</v>
       </c>
       <c r="AH6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AI6">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="AJ6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AL6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="2">
-        <v>0.14</v>
+        <v>0.0625</v>
       </c>
       <c r="AP6" s="2">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ6" s="2">
-        <v>0.32</v>
+        <v>0.625</v>
       </c>
       <c r="AR6" s="2">
         <v>0</v>
       </c>
       <c r="AS6" s="2">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="AT6" s="2">
-        <v>0.68</v>
+        <v>0.3125</v>
       </c>
       <c r="AU6" s="2">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="AV6" s="1">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="AW6" s="2">
-        <v>-0.3948659150264349</v>
+        <v>-0.1607396870554765</v>
       </c>
       <c r="AX6" s="1">
-        <v>131.9459</v>
+        <v>74.85538</v>
       </c>
       <c r="AY6" s="2">
-        <v>-0.159526721447226</v>
+        <v>0.06479914651493598</v>
       </c>
       <c r="AZ6" s="1">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="BA6" s="2">
-        <v>0.2739664946811898</v>
+        <v>0.1948790896159318</v>
       </c>
       <c r="BB6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC6">
-        <v>15.34</v>
+        <v>3.75</v>
       </c>
       <c r="BD6" t="s">
         <v>181</v>
@@ -1996,115 +1996,115 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
         <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1">
-        <v>70.3</v>
+        <v>123.67</v>
       </c>
       <c r="H7">
-        <v>9.99</v>
+        <v>215.17</v>
       </c>
       <c r="I7">
-        <v>116.24</v>
+        <v>1739.84</v>
       </c>
       <c r="J7">
-        <v>114.1</v>
+        <v>1729.78</v>
       </c>
       <c r="K7" s="1">
-        <v>66.73999999999999</v>
+        <v>133.0842</v>
       </c>
       <c r="L7" s="2">
-        <v>0.05334132454300274</v>
+        <v>-0.07073867521463861</v>
       </c>
       <c r="M7" s="1">
-        <v>69.712</v>
+        <v>125.1593</v>
       </c>
       <c r="N7" s="2">
-        <v>0.008434702777140146</v>
+        <v>-0.01189923561413335</v>
       </c>
       <c r="O7">
-        <v>70.53</v>
+        <v>113.59</v>
       </c>
       <c r="P7" s="2">
-        <v>-0.003261023677867631</v>
+        <v>0.08874020600404964</v>
       </c>
       <c r="Q7">
-        <v>1.13</v>
+        <v>-1.89</v>
       </c>
       <c r="R7">
-        <v>0.87</v>
+        <v>-0.6</v>
       </c>
       <c r="S7">
-        <v>62.15</v>
+        <v>31.91</v>
       </c>
       <c r="T7">
-        <v>78.34</v>
+        <v>16.49</v>
       </c>
       <c r="U7">
-        <v>80.25</v>
+        <v>22.08</v>
       </c>
       <c r="V7">
-        <v>3.75</v>
+        <v>-9.24</v>
       </c>
       <c r="W7">
-        <v>76.17</v>
+        <v>40.2</v>
       </c>
       <c r="X7">
-        <v>1.47</v>
+        <v>3.18</v>
       </c>
       <c r="Y7" t="s">
         <v>135</v>
       </c>
       <c r="Z7" s="1">
-        <v>70.72766901652018</v>
+        <v>101.4539980570475</v>
       </c>
       <c r="AA7" s="1">
-        <v>72.84108412992849</v>
+        <v>171.4755672335852</v>
       </c>
       <c r="AB7" s="1">
-        <v>68.61425390311187</v>
+        <v>31.43242888050983</v>
       </c>
       <c r="AC7">
-        <v>3.97</v>
+        <v>20.8</v>
       </c>
       <c r="AD7">
-        <v>1.95</v>
+        <v>3.54</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.0344</v>
+        <v>0.012</v>
       </c>
       <c r="AF7" t="s">
         <v>156</v>
       </c>
       <c r="AG7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH7" t="s">
         <v>172</v>
       </c>
       <c r="AI7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AK7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AL7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -2113,49 +2113,49 @@
         <v>1</v>
       </c>
       <c r="AO7" s="2">
-        <v>0.0625</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="AP7" s="2">
-        <v>0.25</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="AQ7" s="2">
-        <v>0.625</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="AR7" s="2">
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <v>0.0625</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="AT7" s="2">
-        <v>0.3125</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="AU7" s="2">
-        <v>0.0625</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="AV7" s="1">
-        <v>59</v>
+        <v>120.12</v>
       </c>
       <c r="AW7" s="2">
-        <v>-0.1607396870554765</v>
+        <v>-0.02870542572976467</v>
       </c>
       <c r="AX7" s="1">
-        <v>74.85538</v>
+        <v>141.31693</v>
       </c>
       <c r="AY7" s="2">
-        <v>0.06479914651493598</v>
+        <v>0.1426937009784104</v>
       </c>
       <c r="AZ7" s="1">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="BA7" s="2">
-        <v>0.1948790896159318</v>
+        <v>0.285679631276785</v>
       </c>
       <c r="BB7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC7">
-        <v>3.75</v>
+        <v>-9.24</v>
       </c>
       <c r="BD7" t="s">
         <v>181</v>
@@ -2172,160 +2172,160 @@
         <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
       </c>
       <c r="G8" s="1">
-        <v>101.83</v>
+        <v>365.79</v>
       </c>
       <c r="H8">
-        <v>55.05</v>
+        <v>155.17</v>
       </c>
       <c r="I8">
-        <v>540.64</v>
+        <v>424.2</v>
       </c>
       <c r="J8">
-        <v>535.87</v>
+        <v>423.01</v>
       </c>
       <c r="K8" s="1">
-        <v>103.5314</v>
+        <v>393.9372</v>
       </c>
       <c r="L8" s="2">
-        <v>-0.01643366167172478</v>
+        <v>-0.07145098254239507</v>
       </c>
       <c r="M8" s="1">
-        <v>106.5137</v>
+        <v>433.34134</v>
       </c>
       <c r="N8" s="2">
-        <v>-0.04397274716773525</v>
+        <v>-0.1558848274203425</v>
       </c>
       <c r="O8">
-        <v>79.11</v>
+        <v>464.65</v>
       </c>
       <c r="P8" s="2">
-        <v>0.2871950448742258</v>
+        <v>-0.2127622941999354</v>
       </c>
       <c r="Q8">
-        <v>-0.62</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="R8">
-        <v>-0.44</v>
+        <v>-7.35</v>
       </c>
       <c r="S8">
-        <v>45.62</v>
+        <v>37.81</v>
       </c>
       <c r="T8">
-        <v>23.41</v>
+        <v>14.01</v>
       </c>
       <c r="U8">
-        <v>31.28</v>
+        <v>13.08</v>
       </c>
       <c r="V8">
-        <v>-3.73</v>
+        <v>-6.71</v>
       </c>
       <c r="W8">
-        <v>50.53</v>
+        <v>45.55</v>
       </c>
       <c r="X8">
-        <v>1.64</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Y8" t="s">
         <v>136</v>
       </c>
       <c r="Z8" s="1">
-        <v>100.9976687113444</v>
+        <v>436.0980000813803</v>
       </c>
       <c r="AA8" s="1">
-        <v>102.1096626375023</v>
+        <v>741.6223420196615</v>
       </c>
       <c r="AB8" s="1">
-        <v>99.88567478518652</v>
+        <v>130.5736581430991</v>
       </c>
       <c r="AC8">
-        <v>9.529999999999999</v>
+        <v>7.49</v>
       </c>
       <c r="AD8">
-        <v>4.67</v>
+        <v>2.29</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.0177</v>
+        <v>0.0176</v>
       </c>
       <c r="AF8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG8" s="1">
         <v>2</v>
       </c>
       <c r="AH8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI8">
+        <v>40</v>
+      </c>
+      <c r="AJ8">
+        <v>6</v>
+      </c>
+      <c r="AK8">
+        <v>21</v>
+      </c>
+      <c r="AL8">
         <v>13</v>
       </c>
-      <c r="AJ8">
-        <v>2</v>
-      </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-      <c r="AL8">
-        <v>8</v>
-      </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="2">
-        <v>0.1538461538461539</v>
+        <v>0.15</v>
       </c>
       <c r="AP8" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.525</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0.6153846153846154</v>
+        <v>0.325</v>
       </c>
       <c r="AR8" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.675</v>
       </c>
       <c r="AU8" s="2">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <v>94</v>
+        <v>380</v>
       </c>
       <c r="AW8" s="2">
-        <v>-0.0768928606501031</v>
+        <v>0.03884742611881128</v>
       </c>
       <c r="AX8" s="1">
-        <v>105.61538</v>
+        <v>493.42715</v>
       </c>
       <c r="AY8" s="2">
-        <v>0.03717352450162038</v>
+        <v>0.3489355914595805</v>
       </c>
       <c r="AZ8" s="1">
-        <v>120</v>
+        <v>605</v>
       </c>
       <c r="BA8" s="2">
-        <v>0.1784346459785918</v>
+        <v>0.6539544547417916</v>
       </c>
       <c r="BB8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC8">
-        <v>-3.73</v>
+        <v>-6.71</v>
       </c>
       <c r="BD8" t="s">
         <v>181</v>
@@ -2336,166 +2336,166 @@
         <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
         <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G9" s="1">
-        <v>13.37</v>
+        <v>156.99</v>
       </c>
       <c r="H9">
-        <v>9.52</v>
+        <v>254.54</v>
       </c>
       <c r="I9">
-        <v>711.92</v>
+        <v>1621.4</v>
       </c>
       <c r="J9">
-        <v>707.75</v>
+        <v>1610.1</v>
       </c>
       <c r="K9" s="1">
-        <v>11.2142</v>
+        <v>126.2768</v>
       </c>
       <c r="L9" s="2">
-        <v>0.1922384120133402</v>
+        <v>0.2432212409563753</v>
       </c>
       <c r="M9" s="1">
-        <v>12.4666</v>
+        <v>123.4388</v>
       </c>
       <c r="N9" s="2">
-        <v>0.07246562815843932</v>
+        <v>0.2718043273265781</v>
       </c>
       <c r="O9">
-        <v>19.46</v>
+        <v>117.76</v>
       </c>
       <c r="P9" s="2">
-        <v>-0.3129496402877698</v>
+        <v>0.3331351902173913</v>
       </c>
       <c r="Q9">
-        <v>0.65</v>
+        <v>9</v>
       </c>
       <c r="R9">
-        <v>0.45</v>
+        <v>7.77</v>
       </c>
       <c r="S9">
-        <v>67.47</v>
+        <v>72.72</v>
       </c>
       <c r="T9">
-        <v>83.95999999999999</v>
+        <v>87.45</v>
       </c>
       <c r="U9">
-        <v>80.23999999999999</v>
+        <v>81.95</v>
       </c>
       <c r="V9">
-        <v>24.14</v>
+        <v>15.34</v>
       </c>
       <c r="W9">
-        <v>69.25</v>
+        <v>73.67</v>
       </c>
       <c r="X9">
-        <v>0.57</v>
+        <v>5.54</v>
       </c>
       <c r="Y9" t="s">
         <v>137</v>
       </c>
       <c r="Z9" s="1">
-        <v>12.64166673024496</v>
+        <v>153.8569986979167</v>
       </c>
       <c r="AA9" s="1">
-        <v>13.99671420557817</v>
+        <v>165.4314978298575</v>
       </c>
       <c r="AB9" s="1">
-        <v>11.28661925491174</v>
+        <v>142.2824995659759</v>
       </c>
       <c r="AC9">
-        <v>38.84</v>
+        <v>41.01</v>
       </c>
       <c r="AD9">
-        <v>2.09</v>
+        <v>1.04</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.06270000000000001</v>
+        <v>0.0254</v>
       </c>
       <c r="AF9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG9" s="1">
         <v>3</v>
       </c>
       <c r="AH9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AI9">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="AJ9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK9">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AL9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AM9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN9">
         <v>0</v>
       </c>
       <c r="AO9" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.14</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.3571428571428572</v>
+        <v>0.54</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.32</v>
       </c>
       <c r="AR9" s="2">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="2">
         <v>0</v>
       </c>
       <c r="AT9" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.68</v>
       </c>
       <c r="AU9" s="2">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="AW9" s="2">
-        <v>-0.6260284218399401</v>
+        <v>-0.3948659150264349</v>
       </c>
       <c r="AX9" s="1">
-        <v>13.66667</v>
+        <v>131.9459</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.02218922961854904</v>
+        <v>-0.159526721447226</v>
       </c>
       <c r="AZ9" s="1">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.7202692595362753</v>
+        <v>0.2739664946811898</v>
       </c>
       <c r="BB9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC9">
-        <v>24.14</v>
+        <v>15.34</v>
       </c>
       <c r="BD9" t="s">
         <v>181</v>
@@ -2506,115 +2506,115 @@
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
         <v>128</v>
       </c>
       <c r="G10" s="1">
-        <v>113.99</v>
+        <v>189.26</v>
       </c>
       <c r="H10">
-        <v>32.38</v>
+        <v>334.31</v>
       </c>
       <c r="I10">
-        <v>284.06</v>
+        <v>1766.4</v>
       </c>
       <c r="J10">
-        <v>282.98</v>
+        <v>1762.78</v>
       </c>
       <c r="K10" s="1">
-        <v>115.5626</v>
+        <v>187.2382</v>
       </c>
       <c r="L10" s="2">
-        <v>-0.01360820888418925</v>
+        <v>0.01079801023509083</v>
       </c>
       <c r="M10" s="1">
-        <v>127.1075</v>
+        <v>188.1288</v>
       </c>
       <c r="N10" s="2">
-        <v>-0.1032000472041383</v>
+        <v>0.006012901799192778</v>
       </c>
       <c r="O10">
-        <v>133.27</v>
+        <v>159.66</v>
       </c>
       <c r="P10" s="2">
-        <v>-0.1446687176408795</v>
+        <v>0.1853939621696104</v>
       </c>
       <c r="Q10">
-        <v>0.05</v>
+        <v>0.87</v>
       </c>
       <c r="R10">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="S10">
-        <v>43.11</v>
+        <v>50.57</v>
       </c>
       <c r="T10">
-        <v>47.59</v>
+        <v>61.3</v>
       </c>
       <c r="U10">
-        <v>59.08</v>
+        <v>63.41</v>
       </c>
       <c r="V10">
-        <v>-5.36</v>
+        <v>-0.38</v>
       </c>
       <c r="W10">
-        <v>39.29</v>
+        <v>56.66</v>
       </c>
       <c r="X10">
-        <v>3.41</v>
+        <v>4.39</v>
       </c>
       <c r="Y10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z10" s="1">
-        <v>112.7070004781087</v>
+        <v>182.9240005493164</v>
       </c>
       <c r="AA10" s="1">
-        <v>120.1275079273923</v>
+        <v>200.115050420741</v>
       </c>
       <c r="AB10" s="1">
-        <v>105.2864930288251</v>
+        <v>165.7329506778918</v>
       </c>
       <c r="AC10">
-        <v>4.11</v>
+        <v>14.7</v>
       </c>
       <c r="AD10">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.0164</v>
+        <v>0.0083</v>
       </c>
       <c r="AF10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AG10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH10" t="s">
         <v>173</v>
       </c>
       <c r="AI10">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AJ10">
         <v>3</v>
       </c>
       <c r="AK10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AL10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -2623,13 +2623,13 @@
         <v>0</v>
       </c>
       <c r="AO10" s="2">
-        <v>0.1578947368421053</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="AP10" s="2">
-        <v>0.3684210526315789</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="AQ10" s="2">
-        <v>0.4736842105263158</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AR10" s="2">
         <v>0</v>
@@ -2638,34 +2638,34 @@
         <v>0</v>
       </c>
       <c r="AT10" s="2">
-        <v>0.5263157894736842</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AU10" s="2">
         <v>0</v>
       </c>
       <c r="AV10" s="1">
-        <v>113.2</v>
+        <v>170</v>
       </c>
       <c r="AW10" s="2">
-        <v>-0.006930432494078358</v>
+        <v>-0.1017647680439606</v>
       </c>
       <c r="AX10" s="1">
-        <v>136.5125</v>
+        <v>209.1237</v>
       </c>
       <c r="AY10" s="2">
-        <v>0.1975831213264321</v>
+        <v>0.1049545598647365</v>
       </c>
       <c r="AZ10" s="1">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="BA10" s="2">
-        <v>0.4474953943328363</v>
+        <v>0.3209341646412344</v>
       </c>
       <c r="BB10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC10">
-        <v>-5.36</v>
+        <v>-0.38</v>
       </c>
       <c r="BD10" t="s">
         <v>181</v>
@@ -2676,7 +2676,7 @@
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>101</v>
@@ -2685,85 +2685,85 @@
         <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
         <v>128</v>
       </c>
       <c r="G11" s="1">
-        <v>365.79</v>
+        <v>153.23</v>
       </c>
       <c r="H11">
-        <v>155.17</v>
+        <v>82.47</v>
       </c>
       <c r="I11">
-        <v>424.2</v>
+        <v>538.1799999999999</v>
       </c>
       <c r="J11">
-        <v>423.01</v>
+        <v>537.35</v>
       </c>
       <c r="K11" s="1">
-        <v>393.9372</v>
+        <v>149.4974</v>
       </c>
       <c r="L11" s="2">
-        <v>-0.07145098254239507</v>
+        <v>0.02496765830041185</v>
       </c>
       <c r="M11" s="1">
-        <v>433.34134</v>
+        <v>141.135</v>
       </c>
       <c r="N11" s="2">
-        <v>-0.1558848274203425</v>
+        <v>0.08569809048074538</v>
       </c>
       <c r="O11">
-        <v>464.65</v>
+        <v>113.14</v>
       </c>
       <c r="P11" s="2">
-        <v>-0.2127622941999354</v>
+        <v>0.3543397560544457</v>
       </c>
       <c r="Q11">
-        <v>-8.289999999999999</v>
+        <v>2.59</v>
       </c>
       <c r="R11">
-        <v>-7.35</v>
+        <v>2.54</v>
       </c>
       <c r="S11">
-        <v>37.81</v>
+        <v>51.73</v>
       </c>
       <c r="T11">
-        <v>14.01</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="U11">
-        <v>13.08</v>
+        <v>84.41</v>
       </c>
       <c r="V11">
-        <v>-6.71</v>
+        <v>-0.38</v>
       </c>
       <c r="W11">
-        <v>45.55</v>
+        <v>49.76</v>
       </c>
       <c r="X11">
-        <v>8.289999999999999</v>
+        <v>3.83</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Z11" s="1">
-        <v>436.0980000813803</v>
+        <v>129.6920303344727</v>
       </c>
       <c r="AA11" s="1">
-        <v>741.6223420196615</v>
+        <v>222.4923981474338</v>
       </c>
       <c r="AB11" s="1">
-        <v>130.5736581430991</v>
+        <v>36.89166252151155</v>
       </c>
       <c r="AC11">
-        <v>7.49</v>
+        <v>10.31</v>
       </c>
       <c r="AD11">
-        <v>2.29</v>
+        <v>3.4</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.0176</v>
+        <v>0.019199999</v>
       </c>
       <c r="AF11" t="s">
         <v>158</v>
@@ -2772,70 +2772,70 @@
         <v>2</v>
       </c>
       <c r="AH11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI11">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AJ11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK11">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AL11">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO11" s="2">
-        <v>0.15</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="AP11" s="2">
-        <v>0.525</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AQ11" s="2">
-        <v>0.325</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AR11" s="2">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="AS11" s="2">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="AT11" s="2">
-        <v>0.675</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="AU11" s="2">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="AV11" s="1">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="AW11" s="2">
-        <v>0.03884742611881128</v>
+        <v>-0.3473862820596488</v>
       </c>
       <c r="AX11" s="1">
-        <v>493.42715</v>
+        <v>152.93777</v>
       </c>
       <c r="AY11" s="2">
-        <v>0.3489355914595805</v>
+        <v>-0.001907133067937019</v>
       </c>
       <c r="AZ11" s="1">
-        <v>605</v>
+        <v>184</v>
       </c>
       <c r="BA11" s="2">
-        <v>0.6539544547417916</v>
+        <v>0.2008092410102461</v>
       </c>
       <c r="BB11" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC11">
-        <v>-6.71</v>
+        <v>-0.38</v>
       </c>
       <c r="BD11" t="s">
         <v>181</v>
@@ -2846,106 +2846,112 @@
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
         <v>129</v>
       </c>
       <c r="G12" s="1">
-        <v>93.47</v>
+        <v>46.51</v>
       </c>
       <c r="H12">
-        <v>16.04</v>
+        <v>13.55</v>
       </c>
       <c r="I12">
-        <v>171.64</v>
+        <v>291.28</v>
       </c>
       <c r="J12">
-        <v>149.66</v>
+        <v>242.25</v>
       </c>
       <c r="K12" s="1">
-        <v>76.85980000000001</v>
+        <v>39.96</v>
       </c>
       <c r="L12" s="2">
-        <v>0.2161103723923298</v>
+        <v>0.1639139139139138</v>
       </c>
       <c r="M12" s="1">
-        <v>59.0038</v>
+        <v>31.03385</v>
       </c>
       <c r="N12" s="2">
-        <v>0.5841352590850081</v>
+        <v>0.4986861121001744</v>
+      </c>
+      <c r="O12">
+        <v>14.36</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2.238857938718663</v>
       </c>
       <c r="Q12">
-        <v>6.34</v>
+        <v>1.52</v>
       </c>
       <c r="R12">
-        <v>7.21</v>
+        <v>1.52</v>
       </c>
       <c r="S12">
-        <v>56.97</v>
+        <v>61.25</v>
       </c>
       <c r="T12">
-        <v>85.55</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="U12">
-        <v>89.61</v>
+        <v>68.72</v>
       </c>
       <c r="V12">
-        <v>6.71</v>
+        <v>15.99</v>
       </c>
       <c r="W12">
-        <v>40.73</v>
+        <v>62.47</v>
       </c>
       <c r="X12">
-        <v>5.29</v>
+        <v>3.03</v>
       </c>
       <c r="Y12" t="s">
         <v>139</v>
       </c>
       <c r="Z12" s="1">
-        <v>95.65326690673827</v>
+        <v>45.20299898783366</v>
       </c>
       <c r="AA12" s="1">
-        <v>100.1101848680975</v>
+        <v>53.3329239322563</v>
       </c>
       <c r="AB12" s="1">
-        <v>91.19634894537907</v>
+        <v>37.07307404341102</v>
       </c>
       <c r="AC12">
-        <v>7.63</v>
+        <v>35.45</v>
       </c>
       <c r="AD12">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AE12" s="2">
-        <v>0.053200003</v>
+        <v>0.1376</v>
       </c>
       <c r="AF12" t="s">
         <v>159</v>
       </c>
       <c r="AG12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI12">
+        <v>5</v>
+      </c>
+      <c r="AJ12">
         <v>1</v>
       </c>
-      <c r="AH12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI12">
-        <v>13</v>
-      </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>3</v>
-      </c>
-      <c r="AK12">
-        <v>9</v>
       </c>
       <c r="AL12">
         <v>1</v>
@@ -2957,13 +2963,13 @@
         <v>0</v>
       </c>
       <c r="AO12" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.2</v>
       </c>
       <c r="AP12" s="2">
-        <v>0.6923076923076923</v>
+        <v>0.6</v>
       </c>
       <c r="AQ12" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.2</v>
       </c>
       <c r="AR12" s="2">
         <v>0</v>
@@ -2972,34 +2978,34 @@
         <v>0</v>
       </c>
       <c r="AT12" s="2">
-        <v>0.9230769230769231</v>
+        <v>0.8</v>
       </c>
       <c r="AU12" s="2">
         <v>0</v>
       </c>
       <c r="AV12" s="1">
-        <v>34.13</v>
+        <v>30</v>
       </c>
       <c r="AW12" s="2">
-        <v>-0.6348561035626404</v>
+        <v>-0.3549774242098473</v>
       </c>
       <c r="AX12" s="1">
-        <v>84.08692000000001</v>
+        <v>43</v>
       </c>
       <c r="AY12" s="2">
-        <v>-0.1003860062051995</v>
+        <v>-0.07546764136744782</v>
       </c>
       <c r="AZ12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BA12" s="2">
-        <v>0.06986198780357335</v>
+        <v>0.07503762631692114</v>
       </c>
       <c r="BB12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC12">
-        <v>6.71</v>
+        <v>15.99</v>
       </c>
       <c r="BD12" t="s">
         <v>182</v>
@@ -3010,157 +3016,160 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
       </c>
       <c r="G13" s="1">
-        <v>17.78</v>
+        <v>60.53</v>
       </c>
       <c r="H13">
-        <v>14.96</v>
+        <v>9.18</v>
       </c>
       <c r="I13">
-        <v>841.5</v>
+        <v>147.83</v>
       </c>
       <c r="J13">
-        <v>470.16</v>
+        <v>145.22</v>
       </c>
       <c r="K13" s="1">
-        <v>9.2774</v>
+        <v>57.9999</v>
       </c>
       <c r="L13" s="2">
-        <v>0.9164852221527584</v>
+        <v>0.04362248900429146</v>
       </c>
       <c r="M13" s="1">
-        <v>7.47075</v>
+        <v>44.8425</v>
       </c>
       <c r="N13" s="2">
-        <v>1.37994846568283</v>
-      </c>
-      <c r="O13">
-        <v>6.1</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1.914754098360656</v>
+        <v>0.3498355354853097</v>
       </c>
       <c r="Q13">
-        <v>2.08</v>
+        <v>1.23</v>
       </c>
       <c r="R13">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="S13">
-        <v>86.79000000000001</v>
+        <v>51.46</v>
       </c>
       <c r="T13">
-        <v>95.73</v>
+        <v>63.6</v>
       </c>
       <c r="U13">
-        <v>91.52</v>
+        <v>70.77</v>
       </c>
       <c r="V13">
-        <v>81.23999999999999</v>
+        <v>5.23</v>
       </c>
       <c r="W13">
-        <v>95.77</v>
+        <v>45.91</v>
       </c>
       <c r="X13">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z13" s="1">
-        <v>10.69433342615763</v>
+        <v>64.87249972025555</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.2602275107718</v>
+        <v>71.32370878879431</v>
       </c>
       <c r="AB13" s="1">
-        <v>3.128439341543465</v>
+        <v>58.42129065171679</v>
       </c>
       <c r="AC13">
-        <v>65.17</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AD13">
-        <v>2.41</v>
+        <v>2.92</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.10560001</v>
+        <v>0.0645</v>
       </c>
       <c r="AF13" t="s">
         <v>160</v>
       </c>
       <c r="AG13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AI13">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AJ13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AK13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AL13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <v>1</v>
       </c>
       <c r="AO13" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="AP13" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AR13" s="2">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AT13" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AV13" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AW13" s="2">
-        <v>-0.7750281214848144</v>
+        <v>-0.4382950603006774</v>
       </c>
       <c r="AX13" s="1">
-        <v>8.25</v>
+        <v>61.0624</v>
       </c>
       <c r="AY13" s="2">
-        <v>-0.5359955005624297</v>
+        <v>0.008795638526350496</v>
       </c>
       <c r="AZ13" s="1">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="BA13" s="2">
-        <v>-0.2688413948256468</v>
+        <v>0.2555757475631918</v>
       </c>
       <c r="BB13" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC13">
-        <v>81.23999999999999</v>
+        <v>5.23</v>
       </c>
       <c r="BD13" t="s">
         <v>182</v>
@@ -3171,166 +3180,157 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1">
-        <v>46.51</v>
+        <v>17.78</v>
       </c>
       <c r="H14">
-        <v>13.55</v>
+        <v>14.96</v>
       </c>
       <c r="I14">
-        <v>291.28</v>
+        <v>841.5</v>
       </c>
       <c r="J14">
-        <v>242.25</v>
+        <v>470.16</v>
       </c>
       <c r="K14" s="1">
-        <v>39.96</v>
+        <v>9.2774</v>
       </c>
       <c r="L14" s="2">
-        <v>0.1639139139139138</v>
+        <v>0.9164852221527584</v>
       </c>
       <c r="M14" s="1">
-        <v>31.03385</v>
+        <v>7.47075</v>
       </c>
       <c r="N14" s="2">
-        <v>0.4986861121001744</v>
+        <v>1.37994846568283</v>
       </c>
       <c r="O14">
-        <v>14.36</v>
+        <v>6.1</v>
       </c>
       <c r="P14" s="2">
-        <v>2.238857938718663</v>
+        <v>1.914754098360656</v>
       </c>
       <c r="Q14">
-        <v>1.52</v>
+        <v>2.08</v>
       </c>
       <c r="R14">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="S14">
-        <v>61.25</v>
+        <v>86.79000000000001</v>
       </c>
       <c r="T14">
-        <v>65.95999999999999</v>
+        <v>95.73</v>
       </c>
       <c r="U14">
-        <v>68.72</v>
+        <v>91.52</v>
       </c>
       <c r="V14">
-        <v>15.99</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="W14">
-        <v>62.47</v>
+        <v>95.77</v>
       </c>
       <c r="X14">
-        <v>3.03</v>
+        <v>1.01</v>
       </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z14" s="1">
-        <v>45.20299898783366</v>
+        <v>10.69433342615763</v>
       </c>
       <c r="AA14" s="1">
-        <v>53.3329239322563</v>
+        <v>18.2602275107718</v>
       </c>
       <c r="AB14" s="1">
-        <v>37.07307404341102</v>
+        <v>3.128439341543465</v>
       </c>
       <c r="AC14">
-        <v>35.45</v>
+        <v>65.17</v>
       </c>
       <c r="AD14">
-        <v>1.32</v>
+        <v>2.41</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.1376</v>
+        <v>0.10560001</v>
       </c>
       <c r="AF14" t="s">
         <v>161</v>
       </c>
       <c r="AG14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AI14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14">
         <v>1</v>
       </c>
-      <c r="AK14">
-        <v>3</v>
-      </c>
       <c r="AL14">
+        <v>4</v>
+      </c>
+      <c r="AM14">
         <v>1</v>
       </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="2">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AP14" s="2">
-        <v>0.6</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AQ14" s="2">
-        <v>0.2</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AR14" s="2">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AS14" s="2">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AT14" s="2">
-        <v>0.8</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AU14" s="2">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AV14" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="AW14" s="2">
-        <v>-0.3549774242098473</v>
+        <v>-0.7750281214848144</v>
       </c>
       <c r="AX14" s="1">
-        <v>43</v>
+        <v>8.25</v>
       </c>
       <c r="AY14" s="2">
-        <v>-0.07546764136744782</v>
+        <v>-0.5359955005624297</v>
       </c>
       <c r="AZ14" s="1">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="BA14" s="2">
-        <v>0.07503762631692114</v>
+        <v>-0.2688413948256468</v>
       </c>
       <c r="BB14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC14">
-        <v>15.99</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="BD14" t="s">
         <v>182</v>
@@ -3344,10 +3344,10 @@
         <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
         <v>125</v>
@@ -3356,73 +3356,79 @@
         <v>128</v>
       </c>
       <c r="G15" s="1">
-        <v>60.53</v>
+        <v>97.7</v>
       </c>
       <c r="H15">
-        <v>9.18</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I15">
-        <v>147.83</v>
+        <v>86.48</v>
       </c>
       <c r="J15">
-        <v>145.22</v>
+        <v>84.95</v>
       </c>
       <c r="K15" s="1">
-        <v>57.9999</v>
+        <v>101.1543</v>
       </c>
       <c r="L15" s="2">
-        <v>0.04362248900429146</v>
+        <v>-0.03414882016879167</v>
       </c>
       <c r="M15" s="1">
-        <v>44.8425</v>
+        <v>96.84269999999999</v>
       </c>
       <c r="N15" s="2">
-        <v>0.3498355354853097</v>
+        <v>0.008852499981929555</v>
+      </c>
+      <c r="O15">
+        <v>72.84999999999999</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.3411118737131092</v>
       </c>
       <c r="Q15">
-        <v>1.23</v>
+        <v>-1.16</v>
       </c>
       <c r="R15">
-        <v>1.63</v>
+        <v>-0.66</v>
       </c>
       <c r="S15">
-        <v>51.46</v>
+        <v>44.39</v>
       </c>
       <c r="T15">
-        <v>63.6</v>
+        <v>27.1</v>
       </c>
       <c r="U15">
-        <v>70.77</v>
+        <v>25.04</v>
       </c>
       <c r="V15">
-        <v>5.23</v>
+        <v>-5.04</v>
       </c>
       <c r="W15">
-        <v>45.91</v>
+        <v>57.39</v>
       </c>
       <c r="X15">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z15" s="1">
-        <v>64.87249972025555</v>
+        <v>95.37549896240235</v>
       </c>
       <c r="AA15" s="1">
-        <v>71.32370878879431</v>
+        <v>100.0336962134863</v>
       </c>
       <c r="AB15" s="1">
-        <v>58.42129065171679</v>
+        <v>90.71730171131843</v>
       </c>
       <c r="AC15">
-        <v>8.390000000000001</v>
+        <v>5.26</v>
       </c>
       <c r="AD15">
-        <v>2.92</v>
+        <v>4.41</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.0645</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="AF15" t="s">
         <v>162</v>
@@ -3431,70 +3437,70 @@
         <v>2</v>
       </c>
       <c r="AH15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI15">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AJ15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AK15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AL15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="2">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.5</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="AR15" s="2">
         <v>0</v>
       </c>
       <c r="AS15" s="2">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="2">
-        <v>0.75</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="AU15" s="2">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="1">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="AW15" s="2">
-        <v>-0.4382950603006774</v>
+        <v>0.06448311156601839</v>
       </c>
       <c r="AX15" s="1">
-        <v>61.0624</v>
+        <v>121.71429</v>
       </c>
       <c r="AY15" s="2">
-        <v>0.008795638526350496</v>
+        <v>0.2457962128966223</v>
       </c>
       <c r="AZ15" s="1">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="BA15" s="2">
-        <v>0.2555757475631918</v>
+        <v>0.330603889457523</v>
       </c>
       <c r="BB15" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC15">
-        <v>5.23</v>
+        <v>-5.04</v>
       </c>
       <c r="BD15" t="s">
         <v>182</v>
@@ -3505,109 +3511,103 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
         <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G16" s="1">
-        <v>97.7</v>
+        <v>93.47</v>
       </c>
       <c r="H16">
-        <v>8.449999999999999</v>
+        <v>16.04</v>
       </c>
       <c r="I16">
-        <v>86.48</v>
+        <v>171.64</v>
       </c>
       <c r="J16">
-        <v>84.95</v>
+        <v>149.66</v>
       </c>
       <c r="K16" s="1">
-        <v>101.1543</v>
+        <v>76.85980000000001</v>
       </c>
       <c r="L16" s="2">
-        <v>-0.03414882016879167</v>
+        <v>0.2161103723923298</v>
       </c>
       <c r="M16" s="1">
-        <v>96.84269999999999</v>
+        <v>59.0038</v>
       </c>
       <c r="N16" s="2">
-        <v>0.008852499981929555</v>
-      </c>
-      <c r="O16">
-        <v>72.84999999999999</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0.3411118737131092</v>
+        <v>0.5841352590850081</v>
       </c>
       <c r="Q16">
-        <v>-1.16</v>
+        <v>6.34</v>
       </c>
       <c r="R16">
-        <v>-0.66</v>
+        <v>7.21</v>
       </c>
       <c r="S16">
-        <v>44.39</v>
+        <v>56.97</v>
       </c>
       <c r="T16">
-        <v>27.1</v>
+        <v>85.55</v>
       </c>
       <c r="U16">
-        <v>25.04</v>
+        <v>89.61</v>
       </c>
       <c r="V16">
-        <v>-5.04</v>
+        <v>6.71</v>
       </c>
       <c r="W16">
-        <v>57.39</v>
+        <v>40.73</v>
       </c>
       <c r="X16">
-        <v>3.15</v>
+        <v>5.29</v>
       </c>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z16" s="1">
-        <v>95.37549896240235</v>
+        <v>95.65326690673827</v>
       </c>
       <c r="AA16" s="1">
-        <v>100.0336962134863</v>
+        <v>100.1101848680975</v>
       </c>
       <c r="AB16" s="1">
-        <v>90.71730171131843</v>
+        <v>91.19634894537907</v>
       </c>
       <c r="AC16">
-        <v>5.26</v>
+        <v>7.63</v>
       </c>
       <c r="AD16">
-        <v>4.41</v>
+        <v>1.33</v>
       </c>
       <c r="AE16" s="2">
-        <v>0.07049999999999999</v>
+        <v>0.053200003</v>
       </c>
       <c r="AF16" t="s">
         <v>163</v>
       </c>
       <c r="AG16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AI16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK16">
         <v>9</v>
@@ -3622,13 +3622,13 @@
         <v>0</v>
       </c>
       <c r="AO16" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AP16" s="2">
-        <v>0.6428571428571429</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="AQ16" s="2">
-        <v>0.07142857142857142</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AR16" s="2">
         <v>0</v>
@@ -3637,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="AT16" s="2">
-        <v>0.9285714285714286</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="AU16" s="2">
         <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>104</v>
+        <v>34.13</v>
       </c>
       <c r="AW16" s="2">
-        <v>0.06448311156601839</v>
+        <v>-0.6348561035626404</v>
       </c>
       <c r="AX16" s="1">
-        <v>121.71429</v>
+        <v>84.08692000000001</v>
       </c>
       <c r="AY16" s="2">
-        <v>0.2457962128966223</v>
+        <v>-0.1003860062051995</v>
       </c>
       <c r="AZ16" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="BA16" s="2">
-        <v>0.330603889457523</v>
+        <v>0.06986198780357335</v>
       </c>
       <c r="BB16" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC16">
-        <v>-5.04</v>
+        <v>6.71</v>
       </c>
       <c r="BD16" t="s">
         <v>182</v>
@@ -3675,7 +3675,7 @@
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
@@ -3684,82 +3684,82 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" s="1">
-        <v>274.03</v>
+        <v>54.95</v>
       </c>
       <c r="H17">
-        <v>13.61</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="I17">
-        <v>49.65</v>
+        <v>164.66</v>
       </c>
       <c r="J17">
-        <v>33.05</v>
+        <v>162.65</v>
       </c>
       <c r="K17" s="1">
-        <v>205.373</v>
+        <v>45.9942</v>
       </c>
       <c r="L17" s="2">
-        <v>0.3343039250534393</v>
+        <v>0.1947158554774298</v>
       </c>
       <c r="M17" s="1">
-        <v>178.73746</v>
+        <v>45.84185</v>
       </c>
       <c r="N17" s="2">
-        <v>0.5331425208795066</v>
+        <v>0.1986863531903708</v>
       </c>
       <c r="O17">
-        <v>124.61</v>
+        <v>35.33</v>
       </c>
       <c r="P17" s="2">
-        <v>1.199101195730679</v>
+        <v>0.5553354090008493</v>
       </c>
       <c r="Q17">
-        <v>19.57</v>
+        <v>2.18</v>
       </c>
       <c r="R17">
-        <v>18.8</v>
+        <v>2.28</v>
       </c>
       <c r="S17">
-        <v>69.48</v>
+        <v>70.05</v>
       </c>
       <c r="T17">
-        <v>65.86</v>
+        <v>82.64</v>
       </c>
       <c r="U17">
-        <v>60.35</v>
+        <v>81.93000000000001</v>
       </c>
       <c r="V17">
-        <v>8.57</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="W17">
-        <v>52.42</v>
+        <v>62.79</v>
       </c>
       <c r="X17">
-        <v>13.26</v>
+        <v>1.55</v>
       </c>
       <c r="Y17" t="s">
         <v>143</v>
       </c>
       <c r="Z17" s="1">
-        <v>261.1466669718425</v>
+        <v>53.8163335164388</v>
       </c>
       <c r="AA17" s="1">
-        <v>312.6829650846721</v>
+        <v>55.49612049171949</v>
       </c>
       <c r="AB17" s="1">
-        <v>209.6103688590129</v>
+        <v>52.1365465411581</v>
       </c>
       <c r="AC17">
-        <v>3.58</v>
+        <v>11.83</v>
       </c>
       <c r="AD17">
-        <v>6.29</v>
+        <v>2.83</v>
       </c>
       <c r="AE17" s="2">
         <v>0.094399996</v>
@@ -3768,22 +3768,22 @@
         <v>164</v>
       </c>
       <c r="AG17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AI17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3792,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="AO17" s="2">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="2">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="AQ17" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.4</v>
       </c>
       <c r="AR17" s="2">
         <v>0</v>
@@ -3807,34 +3807,34 @@
         <v>0</v>
       </c>
       <c r="AT17" s="2">
-        <v>0.8888888888888888</v>
+        <v>0.6</v>
       </c>
       <c r="AU17" s="2">
         <v>0</v>
       </c>
       <c r="AV17" s="1">
-        <v>157.27</v>
+        <v>36.5</v>
       </c>
       <c r="AW17" s="2">
-        <v>-0.4260847352479655</v>
+        <v>-0.3357597816196543</v>
       </c>
       <c r="AX17" s="1">
-        <v>238.53375</v>
+        <v>47.45</v>
       </c>
       <c r="AY17" s="2">
-        <v>-0.1295341750903185</v>
+        <v>-0.1364877161055505</v>
       </c>
       <c r="AZ17" s="1">
-        <v>301</v>
+        <v>60</v>
       </c>
       <c r="BA17" s="2">
-        <v>0.09841988103492329</v>
+        <v>0.09190172884440395</v>
       </c>
       <c r="BB17" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC17">
-        <v>8.57</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="BD17" t="s">
         <v>182</v>
@@ -3845,115 +3845,115 @@
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
       </c>
       <c r="G18" s="1">
-        <v>59.12</v>
+        <v>310.95</v>
       </c>
       <c r="H18">
-        <v>9.949999999999999</v>
+        <v>11.14</v>
       </c>
       <c r="I18">
-        <v>168.38</v>
+        <v>35.83</v>
       </c>
       <c r="J18">
-        <v>149.94</v>
+        <v>35.69</v>
       </c>
       <c r="K18" s="1">
-        <v>41.4174</v>
+        <v>256.3162</v>
       </c>
       <c r="L18" s="2">
-        <v>0.4274193937813575</v>
+        <v>0.2131500076858193</v>
       </c>
       <c r="M18" s="1">
-        <v>31.8439</v>
+        <v>231.9978</v>
       </c>
       <c r="N18" s="2">
-        <v>0.8565565147485074</v>
+        <v>0.3403144340161845</v>
       </c>
       <c r="O18">
-        <v>19.74</v>
+        <v>161.38</v>
       </c>
       <c r="P18" s="2">
-        <v>1.994934143870314</v>
+        <v>0.9268186888090222</v>
       </c>
       <c r="Q18">
-        <v>4.27</v>
+        <v>13.95</v>
       </c>
       <c r="R18">
-        <v>3.02</v>
+        <v>13.93</v>
       </c>
       <c r="S18">
-        <v>80.05</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="T18">
-        <v>89.81</v>
+        <v>86.63</v>
       </c>
       <c r="U18">
-        <v>84.41</v>
+        <v>84.56</v>
       </c>
       <c r="V18">
-        <v>37.26</v>
+        <v>7.55</v>
       </c>
       <c r="W18">
-        <v>78.62</v>
+        <v>45.94</v>
       </c>
       <c r="X18">
-        <v>2.85</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="Y18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Z18" s="1">
-        <v>57.1199991861979</v>
+        <v>303.878335571289</v>
       </c>
       <c r="AA18" s="1">
-        <v>64.79317796448018</v>
+        <v>316.7730843457471</v>
       </c>
       <c r="AB18" s="1">
-        <v>49.44682040791563</v>
+        <v>290.9835867968309</v>
       </c>
       <c r="AC18">
-        <v>10.44</v>
+        <v>2.22</v>
       </c>
       <c r="AD18">
-        <v>4.89</v>
+        <v>3.91</v>
       </c>
       <c r="AE18" s="2">
-        <v>0.069699995</v>
+        <v>0.0868</v>
       </c>
       <c r="AF18" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AG18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH18" t="s">
         <v>172</v>
       </c>
       <c r="AI18">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ18">
         <v>2</v>
       </c>
       <c r="AK18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AL18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -3962,13 +3962,13 @@
         <v>0</v>
       </c>
       <c r="AO18" s="2">
-        <v>0.1538461538461539</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AP18" s="2">
-        <v>0.6153846153846154</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ18" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AR18" s="2">
         <v>0</v>
@@ -3977,34 +3977,34 @@
         <v>0</v>
       </c>
       <c r="AT18" s="2">
-        <v>0.7692307692307693</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AU18" s="2">
         <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <v>37</v>
+        <v>172.04</v>
       </c>
       <c r="AW18" s="2">
-        <v>-0.3741542625169147</v>
+        <v>-0.4467277697379</v>
       </c>
       <c r="AX18" s="1">
-        <v>44.33333</v>
+        <v>256.00443</v>
       </c>
       <c r="AY18" s="2">
-        <v>-0.2501128213802436</v>
+        <v>-0.1767022672455378</v>
       </c>
       <c r="AZ18" s="1">
-        <v>52</v>
+        <v>375</v>
       </c>
       <c r="BA18" s="2">
-        <v>-0.1204330175913396</v>
+        <v>0.2059816690786301</v>
       </c>
       <c r="BB18" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC18">
-        <v>37.26</v>
+        <v>7.55</v>
       </c>
       <c r="BD18" t="s">
         <v>182</v>
@@ -4015,116 +4015,116 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
         <v>129</v>
       </c>
       <c r="G19" s="1">
-        <v>310.95</v>
+        <v>59.12</v>
       </c>
       <c r="H19">
-        <v>11.14</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I19">
-        <v>35.83</v>
+        <v>168.38</v>
       </c>
       <c r="J19">
-        <v>35.69</v>
+        <v>149.94</v>
       </c>
       <c r="K19" s="1">
-        <v>256.3162</v>
+        <v>41.4174</v>
       </c>
       <c r="L19" s="2">
-        <v>0.2131500076858193</v>
+        <v>0.4274193937813575</v>
       </c>
       <c r="M19" s="1">
-        <v>231.9978</v>
+        <v>31.8439</v>
       </c>
       <c r="N19" s="2">
-        <v>0.3403144340161845</v>
+        <v>0.8565565147485074</v>
       </c>
       <c r="O19">
-        <v>161.38</v>
+        <v>19.74</v>
       </c>
       <c r="P19" s="2">
-        <v>0.9268186888090222</v>
+        <v>1.994934143870314</v>
       </c>
       <c r="Q19">
-        <v>13.95</v>
+        <v>4.27</v>
       </c>
       <c r="R19">
-        <v>13.93</v>
+        <v>3.02</v>
       </c>
       <c r="S19">
-        <v>73.95999999999999</v>
+        <v>80.05</v>
       </c>
       <c r="T19">
-        <v>86.63</v>
+        <v>89.81</v>
       </c>
       <c r="U19">
-        <v>84.56</v>
+        <v>84.41</v>
       </c>
       <c r="V19">
-        <v>7.55</v>
+        <v>37.26</v>
       </c>
       <c r="W19">
-        <v>45.94</v>
+        <v>78.62</v>
       </c>
       <c r="X19">
-        <v>9.609999999999999</v>
+        <v>2.85</v>
       </c>
       <c r="Y19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z19" s="1">
-        <v>303.878335571289</v>
+        <v>57.1199991861979</v>
       </c>
       <c r="AA19" s="1">
-        <v>316.7730843457471</v>
+        <v>64.79317796448018</v>
       </c>
       <c r="AB19" s="1">
-        <v>290.9835867968309</v>
+        <v>49.44682040791563</v>
       </c>
       <c r="AC19">
-        <v>2.22</v>
+        <v>10.44</v>
       </c>
       <c r="AD19">
-        <v>3.91</v>
+        <v>4.89</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.0868</v>
+        <v>0.069699995</v>
       </c>
       <c r="AF19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AG19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH19" t="s">
         <v>173</v>
       </c>
       <c r="AI19">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AJ19">
         <v>2</v>
       </c>
       <c r="AK19">
+        <v>8</v>
+      </c>
+      <c r="AL19">
         <v>3</v>
       </c>
-      <c r="AL19">
-        <v>4</v>
-      </c>
       <c r="AM19">
         <v>0</v>
       </c>
@@ -4132,13 +4132,13 @@
         <v>0</v>
       </c>
       <c r="AO19" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AP19" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AQ19" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AR19" s="2">
         <v>0</v>
@@ -4147,34 +4147,34 @@
         <v>0</v>
       </c>
       <c r="AT19" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AU19" s="2">
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <v>172.04</v>
+        <v>37</v>
       </c>
       <c r="AW19" s="2">
-        <v>-0.4467277697379</v>
+        <v>-0.3741542625169147</v>
       </c>
       <c r="AX19" s="1">
-        <v>256.00443</v>
+        <v>44.33333</v>
       </c>
       <c r="AY19" s="2">
-        <v>-0.1767022672455378</v>
+        <v>-0.2501128213802436</v>
       </c>
       <c r="AZ19" s="1">
-        <v>375</v>
+        <v>52</v>
       </c>
       <c r="BA19" s="2">
-        <v>0.2059816690786301</v>
+        <v>-0.1204330175913396</v>
       </c>
       <c r="BB19" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC19">
-        <v>7.55</v>
+        <v>37.26</v>
       </c>
       <c r="BD19" t="s">
         <v>182</v>
@@ -4185,166 +4185,166 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
         <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G20" s="1">
-        <v>54.95</v>
+        <v>50.38</v>
       </c>
       <c r="H20">
-        <v>9.050000000000001</v>
+        <v>11.28</v>
       </c>
       <c r="I20">
-        <v>164.66</v>
+        <v>215.45</v>
       </c>
       <c r="J20">
-        <v>162.65</v>
+        <v>194.53</v>
       </c>
       <c r="K20" s="1">
-        <v>45.9942</v>
+        <v>53.6484</v>
       </c>
       <c r="L20" s="2">
-        <v>0.1947158554774298</v>
+        <v>-0.06092259974202398</v>
       </c>
       <c r="M20" s="1">
-        <v>45.84185</v>
+        <v>36.3991</v>
       </c>
       <c r="N20" s="2">
-        <v>0.1986863531903708</v>
+        <v>0.3841001563225466</v>
       </c>
       <c r="O20">
-        <v>35.33</v>
+        <v>14.75</v>
       </c>
       <c r="P20" s="2">
-        <v>0.5553354090008493</v>
+        <v>2.415593220338983</v>
       </c>
       <c r="Q20">
-        <v>2.18</v>
+        <v>-0.37</v>
       </c>
       <c r="R20">
-        <v>2.28</v>
+        <v>-0.61</v>
       </c>
       <c r="S20">
-        <v>70.05</v>
+        <v>49.62</v>
       </c>
       <c r="T20">
-        <v>82.64</v>
+        <v>47.9</v>
       </c>
       <c r="U20">
-        <v>81.93000000000001</v>
+        <v>39.92</v>
       </c>
       <c r="V20">
-        <v>9.220000000000001</v>
+        <v>5.05</v>
       </c>
       <c r="W20">
-        <v>62.79</v>
+        <v>48.84</v>
       </c>
       <c r="X20">
-        <v>1.55</v>
+        <v>3.87</v>
       </c>
       <c r="Y20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z20" s="1">
-        <v>53.8163335164388</v>
+        <v>52.4810001373291</v>
       </c>
       <c r="AA20" s="1">
-        <v>55.49612049171949</v>
+        <v>65.75837713300945</v>
       </c>
       <c r="AB20" s="1">
-        <v>52.1365465411581</v>
+        <v>39.20362314164876</v>
       </c>
       <c r="AC20">
-        <v>11.83</v>
+        <v>61.69</v>
       </c>
       <c r="AD20">
-        <v>2.83</v>
+        <v>1.47</v>
       </c>
       <c r="AE20" s="2">
-        <v>0.094399996</v>
+        <v>0.3423</v>
       </c>
       <c r="AF20" t="s">
         <v>166</v>
       </c>
       <c r="AG20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AI20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ20">
         <v>0</v>
       </c>
       <c r="AK20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" s="2">
         <v>0</v>
       </c>
       <c r="AP20" s="2">
-        <v>0.6</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AQ20" s="2">
-        <v>0.4</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="AR20" s="2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AS20" s="2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AT20" s="2">
-        <v>0.6</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AU20" s="2">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AV20" s="1">
-        <v>36.5</v>
+        <v>28</v>
       </c>
       <c r="AW20" s="2">
-        <v>-0.3357597816196543</v>
+        <v>-0.44422389837237</v>
       </c>
       <c r="AX20" s="1">
-        <v>47.45</v>
+        <v>48.52833</v>
       </c>
       <c r="AY20" s="2">
-        <v>-0.1364877161055505</v>
+        <v>-0.03675406907502989</v>
       </c>
       <c r="AZ20" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BA20" s="2">
-        <v>0.09190172884440395</v>
+        <v>0.6871774513695911</v>
       </c>
       <c r="BB20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC20">
-        <v>9.220000000000001</v>
+        <v>5.05</v>
       </c>
       <c r="BD20" t="s">
         <v>182</v>
@@ -4355,13 +4355,13 @@
         <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
         <v>126</v>
@@ -4370,151 +4370,151 @@
         <v>129</v>
       </c>
       <c r="G21" s="1">
-        <v>50.38</v>
+        <v>274.03</v>
       </c>
       <c r="H21">
-        <v>11.28</v>
+        <v>13.61</v>
       </c>
       <c r="I21">
-        <v>215.45</v>
+        <v>49.65</v>
       </c>
       <c r="J21">
-        <v>194.53</v>
+        <v>33.05</v>
       </c>
       <c r="K21" s="1">
-        <v>53.6484</v>
+        <v>205.373</v>
       </c>
       <c r="L21" s="2">
-        <v>-0.06092259974202398</v>
+        <v>0.3343039250534393</v>
       </c>
       <c r="M21" s="1">
-        <v>36.3991</v>
+        <v>178.73746</v>
       </c>
       <c r="N21" s="2">
-        <v>0.3841001563225466</v>
+        <v>0.5331425208795066</v>
       </c>
       <c r="O21">
-        <v>14.75</v>
+        <v>124.61</v>
       </c>
       <c r="P21" s="2">
-        <v>2.415593220338983</v>
+        <v>1.199101195730679</v>
       </c>
       <c r="Q21">
-        <v>-0.37</v>
+        <v>19.57</v>
       </c>
       <c r="R21">
-        <v>-0.61</v>
+        <v>18.8</v>
       </c>
       <c r="S21">
-        <v>49.62</v>
+        <v>69.48</v>
       </c>
       <c r="T21">
-        <v>47.9</v>
+        <v>65.86</v>
       </c>
       <c r="U21">
-        <v>39.92</v>
+        <v>60.35</v>
       </c>
       <c r="V21">
-        <v>5.05</v>
+        <v>8.57</v>
       </c>
       <c r="W21">
-        <v>48.84</v>
+        <v>52.42</v>
       </c>
       <c r="X21">
-        <v>3.87</v>
+        <v>13.26</v>
       </c>
       <c r="Y21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z21" s="1">
-        <v>52.4810001373291</v>
+        <v>261.1466669718425</v>
       </c>
       <c r="AA21" s="1">
-        <v>65.75837713300945</v>
+        <v>312.6829650846721</v>
       </c>
       <c r="AB21" s="1">
-        <v>39.20362314164876</v>
+        <v>209.6103688590129</v>
       </c>
       <c r="AC21">
-        <v>61.69</v>
+        <v>3.58</v>
       </c>
       <c r="AD21">
-        <v>1.47</v>
+        <v>6.29</v>
       </c>
       <c r="AE21" s="2">
-        <v>0.3423</v>
+        <v>0.094399996</v>
       </c>
       <c r="AF21" t="s">
         <v>167</v>
       </c>
       <c r="AG21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI21">
+        <v>9</v>
+      </c>
+      <c r="AJ21">
         <v>1</v>
       </c>
-      <c r="AH21" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI21">
-        <v>13</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="2">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP21" s="2">
-        <v>0.3076923076923077</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="AQ21" s="2">
-        <v>0.5384615384615384</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AR21" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="2">
-        <v>0.3076923076923077</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="AU21" s="2">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="1">
-        <v>28</v>
+        <v>157.27</v>
       </c>
       <c r="AW21" s="2">
-        <v>-0.44422389837237</v>
+        <v>-0.4260847352479655</v>
       </c>
       <c r="AX21" s="1">
-        <v>48.52833</v>
+        <v>238.53375</v>
       </c>
       <c r="AY21" s="2">
-        <v>-0.03675406907502989</v>
+        <v>-0.1295341750903185</v>
       </c>
       <c r="AZ21" s="1">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="BA21" s="2">
-        <v>0.6871774513695911</v>
+        <v>0.09841988103492329</v>
       </c>
       <c r="BB21" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC21">
-        <v>5.05</v>
+        <v>8.57</v>
       </c>
       <c r="BD21" t="s">
         <v>182</v>
@@ -4525,28 +4525,28 @@
         <v>76</v>
       </c>
       <c r="G22" s="1">
-        <v>10.05</v>
-      </c>
-      <c r="H22">
-        <v>0.4</v>
+        <v>10.16</v>
       </c>
       <c r="K22" s="1">
-        <v>10.038944</v>
+        <v>10.1219</v>
       </c>
       <c r="L22" s="2">
-        <v>0.001101311054230401</v>
+        <v>0.003764115432873277</v>
       </c>
       <c r="M22" s="1">
-        <v>10.038944</v>
+        <v>10.1219</v>
       </c>
       <c r="N22" s="2">
-        <v>0.001101311054230401</v>
+        <v>0.003764115432873277</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22" s="2">
         <v>0</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>177</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -4596,28 +4596,28 @@
         <v>77</v>
       </c>
       <c r="G23" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="J23">
-        <v>23.45</v>
+        <v>10.05</v>
+      </c>
+      <c r="H23">
+        <v>0.4</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>10.038944</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.001101311054230401</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>10.038944</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.001101311054230401</v>
       </c>
       <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>177</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>-1</v>
       </c>
       <c r="BB23" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="BD23" t="s">
         <v>183</v>
@@ -4666,20 +4666,47 @@
       <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
       <c r="G24" s="1">
-        <v>0.2697</v>
+        <v>10.11</v>
+      </c>
+      <c r="H24">
+        <v>0.3</v>
+      </c>
+      <c r="I24">
+        <v>23.65</v>
+      </c>
+      <c r="J24">
+        <v>23.45</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>10.083</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.002677774471883293</v>
       </c>
       <c r="M24" s="1">
+        <v>10.038352</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.007137426541727139</v>
+      </c>
+      <c r="AC24">
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE24" s="2">
         <v>0</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>168</v>
       </c>
       <c r="AH24" t="s">
         <v>177</v>
@@ -4721,7 +4748,7 @@
         <v>-1</v>
       </c>
       <c r="BB24" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="BD24" t="s">
         <v>183</v>
@@ -4731,47 +4758,20 @@
       <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
-      </c>
       <c r="G25" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="H25">
-        <v>0.27</v>
-      </c>
-      <c r="I25">
-        <v>25.18</v>
-      </c>
-      <c r="J25">
-        <v>23.45</v>
+        <v>0.2697</v>
       </c>
       <c r="K25" s="1">
-        <v>10.34044</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.02510144636011625</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1">
-        <v>10.194944</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0.03973106669345119</v>
-      </c>
-      <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="2">
         <v>0</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>168</v>
       </c>
       <c r="AH25" t="s">
         <v>177</v>
@@ -4813,7 +4813,7 @@
         <v>-1</v>
       </c>
       <c r="BB25" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="BD25" t="s">
         <v>183</v>
@@ -4824,97 +4824,49 @@
         <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G26" s="1">
-        <v>2.175</v>
+        <v>10.6</v>
       </c>
       <c r="H26">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="I26">
-        <v>20.4</v>
+        <v>25.18</v>
       </c>
       <c r="J26">
-        <v>4.03</v>
+        <v>23.45</v>
       </c>
       <c r="K26" s="1">
-        <v>1.8972</v>
+        <v>10.34044</v>
       </c>
       <c r="L26" s="2">
-        <v>0.146426312460468</v>
+        <v>0.02510144636011625</v>
       </c>
       <c r="M26" s="1">
-        <v>1.6471</v>
+        <v>10.194944</v>
       </c>
       <c r="N26" s="2">
-        <v>0.3205027017181712</v>
-      </c>
-      <c r="O26">
-        <v>2.32</v>
-      </c>
-      <c r="P26" s="2">
-        <v>-0.06250000000000001</v>
-      </c>
-      <c r="Q26">
-        <v>0.06</v>
-      </c>
-      <c r="R26">
-        <v>0.08</v>
-      </c>
-      <c r="S26">
-        <v>57.54</v>
-      </c>
-      <c r="T26">
-        <v>33.68</v>
-      </c>
-      <c r="U26">
-        <v>42.48</v>
-      </c>
-      <c r="V26">
-        <v>-8.44</v>
-      </c>
-      <c r="W26">
-        <v>70.97</v>
-      </c>
-      <c r="X26">
-        <v>0.15</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>2.113666677474975</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>2.317493190417721</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>1.90984016453223</v>
+        <v>0.03973106669345119</v>
       </c>
       <c r="AC26">
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>0.6899999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="AE26" s="2">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>177</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -4953,10 +4905,7 @@
         <v>-1</v>
       </c>
       <c r="BB26" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC26">
-        <v>-8.44</v>
+        <v>180</v>
       </c>
       <c r="BD26" t="s">
         <v>183</v>
@@ -4967,88 +4916,97 @@
         <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
       </c>
       <c r="G27" s="1">
-        <v>0.82</v>
+        <v>2.175</v>
       </c>
       <c r="H27">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I27">
-        <v>31.62</v>
+        <v>20.4</v>
       </c>
       <c r="J27">
-        <v>18.48</v>
+        <v>4.03</v>
       </c>
       <c r="K27" s="1">
-        <v>0.8648</v>
+        <v>1.8972</v>
       </c>
       <c r="L27" s="2">
-        <v>-0.05180388529139693</v>
+        <v>0.146426312460468</v>
       </c>
       <c r="M27" s="1">
-        <v>0.91065</v>
+        <v>1.6471</v>
       </c>
       <c r="N27" s="2">
-        <v>-0.09954428155712954</v>
+        <v>0.3205027017181712</v>
       </c>
       <c r="O27">
-        <v>1.28</v>
+        <v>2.32</v>
       </c>
       <c r="P27" s="2">
-        <v>-0.3593750000000001</v>
+        <v>-0.06250000000000001</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="R27">
-        <v>-0</v>
+        <v>0.08</v>
       </c>
       <c r="S27">
-        <v>45.09</v>
+        <v>57.54</v>
       </c>
       <c r="T27">
-        <v>75.29000000000001</v>
+        <v>33.68</v>
       </c>
       <c r="U27">
-        <v>72.81999999999999</v>
+        <v>42.48</v>
       </c>
       <c r="V27">
-        <v>2.5</v>
+        <v>-8.44</v>
       </c>
       <c r="W27">
-        <v>68.68000000000001</v>
+        <v>70.97</v>
       </c>
       <c r="X27">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="Y27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z27" s="1">
-        <v>0.8320000032583873</v>
+        <v>2.113666677474975</v>
       </c>
       <c r="AA27" s="1">
-        <v>0.870078318557264</v>
+        <v>2.317493190417721</v>
       </c>
       <c r="AB27" s="1">
-        <v>0.7939216879595106</v>
+        <v>1.90984016453223</v>
       </c>
       <c r="AC27">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>6.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE27" s="2">
-        <v>0.010299999</v>
+        <v>0.0011</v>
       </c>
       <c r="AF27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -5087,10 +5045,10 @@
         <v>-1</v>
       </c>
       <c r="BB27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC27">
-        <v>2.5</v>
+        <v>-8.44</v>
       </c>
       <c r="BD27" t="s">
         <v>183</v>
@@ -5100,116 +5058,41 @@
       <c r="A28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" t="s">
-        <v>129</v>
-      </c>
       <c r="G28" s="1">
-        <v>28.63</v>
-      </c>
-      <c r="H28">
-        <v>1.61</v>
-      </c>
-      <c r="I28">
-        <v>56.14</v>
+        <v>0.27</v>
       </c>
       <c r="J28">
-        <v>52.55</v>
+        <v>23.45</v>
       </c>
       <c r="K28" s="1">
-        <v>21.1089</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.3562999493104805</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>23.06255</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.2414065226958856</v>
-      </c>
-      <c r="O28">
-        <v>10.53</v>
-      </c>
-      <c r="P28" s="2">
-        <v>1.718898385565052</v>
-      </c>
-      <c r="Q28">
-        <v>2.55</v>
-      </c>
-      <c r="R28">
-        <v>2.64</v>
-      </c>
-      <c r="S28">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="T28">
-        <v>79.91</v>
-      </c>
-      <c r="U28">
-        <v>80.83</v>
-      </c>
-      <c r="V28">
-        <v>12.94</v>
-      </c>
-      <c r="W28">
-        <v>64.31999999999999</v>
-      </c>
-      <c r="X28">
-        <v>2.39</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>26.88500016530355</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>33.23950522818716</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>20.53049510241994</v>
-      </c>
-      <c r="AC28">
-        <v>12.01</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2">
-        <v>0.2233</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="s">
-        <v>170</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="AH28" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AI28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -5217,50 +5100,26 @@
       <c r="AN28">
         <v>0</v>
       </c>
-      <c r="AO28" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AU28" s="2">
-        <v>0</v>
-      </c>
       <c r="AV28" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="2">
-        <v>-0.5459308417743626</v>
+        <v>-1</v>
       </c>
       <c r="AX28" s="1">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="AY28" s="2">
-        <v>0.08976597974152987</v>
+        <v>-1</v>
       </c>
       <c r="AZ28" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="2">
-        <v>0.7464198393293748</v>
+        <v>-1</v>
       </c>
       <c r="BB28" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC28">
-        <v>12.94</v>
+        <v>158</v>
       </c>
       <c r="BD28" t="s">
         <v>183</v>
@@ -5271,166 +5130,166 @@
         <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G29" s="1">
-        <v>12.51</v>
+        <v>28.63</v>
       </c>
       <c r="H29">
-        <v>8.25</v>
+        <v>1.61</v>
       </c>
       <c r="I29">
-        <v>659.51</v>
+        <v>56.14</v>
       </c>
       <c r="J29">
-        <v>653.23</v>
+        <v>52.55</v>
       </c>
       <c r="K29" s="1">
-        <v>11.493</v>
+        <v>21.1089</v>
       </c>
       <c r="L29" s="2">
-        <v>0.08848864526233355</v>
+        <v>0.3562999493104805</v>
       </c>
       <c r="M29" s="1">
-        <v>13.27525</v>
+        <v>23.06255</v>
       </c>
       <c r="N29" s="2">
-        <v>-0.05764486544509519</v>
+        <v>0.2414065226958856</v>
       </c>
       <c r="O29">
-        <v>14.46</v>
+        <v>10.53</v>
       </c>
       <c r="P29" s="2">
-        <v>-0.1348547717842324</v>
+        <v>1.718898385565052</v>
       </c>
       <c r="Q29">
-        <v>0.34</v>
+        <v>2.55</v>
       </c>
       <c r="R29">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="S29">
-        <v>61.59</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="T29">
-        <v>73.25</v>
+        <v>79.91</v>
       </c>
       <c r="U29">
-        <v>75.20999999999999</v>
+        <v>80.83</v>
       </c>
       <c r="V29">
-        <v>8.59</v>
+        <v>12.94</v>
       </c>
       <c r="W29">
-        <v>45.91</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="X29">
-        <v>0.5</v>
+        <v>2.39</v>
       </c>
       <c r="Y29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z29" s="1">
-        <v>12.49966662724813</v>
+        <v>26.88500016530355</v>
       </c>
       <c r="AA29" s="1">
-        <v>13.15483779165195</v>
+        <v>33.23950522818716</v>
       </c>
       <c r="AB29" s="1">
-        <v>11.84449546284431</v>
+        <v>20.53049510241994</v>
       </c>
       <c r="AC29">
-        <v>67.23999999999999</v>
+        <v>12.01</v>
       </c>
       <c r="AD29">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="AE29" s="2">
-        <v>0.1026</v>
+        <v>0.2233</v>
       </c>
       <c r="AF29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG29" s="1">
         <v>3</v>
       </c>
       <c r="AH29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AI29">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AJ29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK29">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29">
         <v>0</v>
       </c>
       <c r="AO29" s="2">
-        <v>0.125</v>
+        <v>0.4</v>
       </c>
       <c r="AP29" s="2">
-        <v>0.4166666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="AQ29" s="2">
-        <v>0.4166666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="AR29" s="2">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="2">
         <v>0</v>
       </c>
       <c r="AT29" s="2">
-        <v>0.5416666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="AU29" s="2">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="AV29" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AW29" s="2">
-        <v>-0.3605115907274181</v>
+        <v>-0.5459308417743626</v>
       </c>
       <c r="AX29" s="1">
-        <v>13.48739</v>
+        <v>31.2</v>
       </c>
       <c r="AY29" s="2">
-        <v>0.07812869704236609</v>
+        <v>0.08976597974152987</v>
       </c>
       <c r="AZ29" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="BA29" s="2">
-        <v>0.5987210231814548</v>
+        <v>0.7464198393293748</v>
       </c>
       <c r="BB29" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BC29">
-        <v>8.59</v>
+        <v>12.94</v>
       </c>
       <c r="BD29" t="s">
         <v>183</v>
@@ -5441,49 +5300,88 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G30" s="1">
-        <v>10.11</v>
+        <v>0.82</v>
       </c>
       <c r="H30">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="I30">
-        <v>23.65</v>
+        <v>31.62</v>
       </c>
       <c r="J30">
-        <v>23.45</v>
+        <v>18.48</v>
       </c>
       <c r="K30" s="1">
-        <v>10.083</v>
+        <v>0.8648</v>
       </c>
       <c r="L30" s="2">
-        <v>0.002677774471883293</v>
+        <v>-0.05180388529139693</v>
       </c>
       <c r="M30" s="1">
-        <v>10.038352</v>
+        <v>0.91065</v>
       </c>
       <c r="N30" s="2">
-        <v>0.007137426541727139</v>
+        <v>-0.09954428155712954</v>
+      </c>
+      <c r="O30">
+        <v>1.28</v>
+      </c>
+      <c r="P30" s="2">
+        <v>-0.3593750000000001</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>-0</v>
+      </c>
+      <c r="S30">
+        <v>45.09</v>
+      </c>
+      <c r="T30">
+        <v>75.29000000000001</v>
+      </c>
+      <c r="U30">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="V30">
+        <v>2.5</v>
+      </c>
+      <c r="W30">
+        <v>68.68000000000001</v>
+      </c>
+      <c r="X30">
+        <v>0.05</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0.8320000032583873</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0.870078318557264</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0.7939216879595106</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AD30">
-        <v>0.07000000000000001</v>
+        <v>6.06</v>
       </c>
       <c r="AE30" s="2">
-        <v>0</v>
+        <v>0.010299999</v>
       </c>
       <c r="AF30" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -5522,7 +5420,10 @@
         <v>-1</v>
       </c>
       <c r="BB30" t="s">
-        <v>178</v>
+        <v>158</v>
+      </c>
+      <c r="BC30">
+        <v>2.5</v>
       </c>
       <c r="BD30" t="s">
         <v>183</v>
@@ -5532,68 +5433,167 @@
       <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
       <c r="G31" s="1">
-        <v>10.16</v>
+        <v>12.51</v>
+      </c>
+      <c r="H31">
+        <v>8.25</v>
+      </c>
+      <c r="I31">
+        <v>659.51</v>
+      </c>
+      <c r="J31">
+        <v>653.23</v>
       </c>
       <c r="K31" s="1">
-        <v>10.1219</v>
+        <v>11.493</v>
       </c>
       <c r="L31" s="2">
-        <v>0.003764115432873277</v>
+        <v>0.08848864526233355</v>
       </c>
       <c r="M31" s="1">
-        <v>10.1219</v>
+        <v>13.27525</v>
       </c>
       <c r="N31" s="2">
-        <v>0.003764115432873277</v>
+        <v>-0.05764486544509519</v>
+      </c>
+      <c r="O31">
+        <v>14.46</v>
+      </c>
+      <c r="P31" s="2">
+        <v>-0.1348547717842324</v>
+      </c>
+      <c r="Q31">
+        <v>0.34</v>
+      </c>
+      <c r="R31">
+        <v>0.26</v>
+      </c>
+      <c r="S31">
+        <v>61.59</v>
+      </c>
+      <c r="T31">
+        <v>73.25</v>
+      </c>
+      <c r="U31">
+        <v>75.20999999999999</v>
+      </c>
+      <c r="V31">
+        <v>8.59</v>
+      </c>
+      <c r="W31">
+        <v>45.91</v>
+      </c>
+      <c r="X31">
+        <v>0.5</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>12.49966662724813</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>13.15483779165195</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>11.84449546284431</v>
+      </c>
+      <c r="AC31">
+        <v>67.23999999999999</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE31" s="2">
-        <v>0</v>
+        <v>0.1026</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>3</v>
       </c>
       <c r="AH31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31">
         <v>0</v>
       </c>
+      <c r="AO31" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>0.5416666666666667</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>0.04166666666666666</v>
+      </c>
       <c r="AV31" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW31" s="2">
-        <v>-1</v>
+        <v>-0.3605115907274181</v>
       </c>
       <c r="AX31" s="1">
-        <v>0</v>
+        <v>13.48739</v>
       </c>
       <c r="AY31" s="2">
-        <v>-1</v>
+        <v>0.07812869704236609</v>
       </c>
       <c r="AZ31" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA31" s="2">
-        <v>-1</v>
+        <v>0.5987210231814548</v>
       </c>
       <c r="BB31" t="s">
-        <v>180</v>
+        <v>158</v>
+      </c>
+      <c r="BC31">
+        <v>8.59</v>
       </c>
       <c r="BD31" t="s">
         <v>183</v>
